--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Alice_91_Site_1A_Trina_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Alice_91_Site_1A_Trina_Power.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.9</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>2.084208331077148</v>
+        <v>2.084208330992817</v>
       </c>
       <c r="G2" t="n">
-        <v>3.262163426138341</v>
+        <v>3.262163426006347</v>
       </c>
       <c r="H2" t="n">
-        <v>1.772608240427352</v>
+        <v>1.772608240358271</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.91</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>1.864381456249621</v>
+        <v>1.864381456141465</v>
       </c>
       <c r="G3" t="n">
-        <v>2.918094562938836</v>
+        <v>2.918094562769553</v>
       </c>
       <c r="H3" t="n">
-        <v>1.589002119228111</v>
+        <v>1.589002119133734</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.92</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>1.664860893040143</v>
+        <v>1.664860893028553</v>
       </c>
       <c r="G4" t="n">
-        <v>2.605808754289321</v>
+        <v>2.605808754271182</v>
       </c>
       <c r="H4" t="n">
-        <v>1.426433817945401</v>
+        <v>1.426433817933692</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.93</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>1.472634507566431</v>
+        <v>1.472634507535951</v>
       </c>
       <c r="G5" t="n">
-        <v>2.304939654554444</v>
+        <v>2.304939654506738</v>
       </c>
       <c r="H5" t="n">
-        <v>1.269610317818012</v>
+        <v>1.269610317792454</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>1.262047792160739</v>
+        <v>1.262047792143788</v>
       </c>
       <c r="G6" t="n">
-        <v>1.975333313967552</v>
+        <v>1.975333313941021</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09567705349352</v>
+        <v>1.095677053477569</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.95</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>1.019300767021955</v>
+        <v>1.019300767019919</v>
       </c>
       <c r="G7" t="n">
-        <v>1.595390265374914</v>
+        <v>1.595390265371728</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8811430688123622</v>
+        <v>0.8811430688104318</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.96</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8230228538705308</v>
+        <v>0.8230228538669245</v>
       </c>
       <c r="G8" t="n">
-        <v>1.288179791213523</v>
+        <v>1.288179791207878</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7042572388858291</v>
+        <v>0.7042572388823858</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.97</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.715442882553199</v>
+        <v>0.7154428825532329</v>
       </c>
       <c r="G9" t="n">
-        <v>1.119797656575841</v>
+        <v>1.119797656575894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6021096348043776</v>
+        <v>0.6021096348044288</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.98</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6386071911451943</v>
+        <v>0.6386071911451857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.99953588686892</v>
+        <v>0.9995358868689067</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5239262175317109</v>
+        <v>0.5239262175316918</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.99</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5919603517434743</v>
+        <v>0.5919603517434724</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9265251368530633</v>
+        <v>0.9265251368530603</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4557572336998536</v>
+        <v>0.45575723369985</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5837428749683369</v>
+        <v>0.5837428749683309</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9136632977598761</v>
+        <v>0.9136632977598667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4432770401994042</v>
+        <v>0.4432770401993973</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
